--- a/publipostage/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
+++ b/publipostage/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,32 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00701792</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Randomized Trial Comparing Liver Transplantation to Alternative Therapies for Patients With Pugh B Alcoholic Cirrhosis</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>TRANSCIAL</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -525,28 +535,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT01487850</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Study of Wind Reed Instruments' Fungal Contamination and Its Immunological and Clinical Consequences for Musicians.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -558,32 +573,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT02841124</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Decision to Limit or Withdraw Specific Therapies for Advanced Cancer and Hematological Malignancies : Physicians and Patients Points of View and Interactions.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>WHATELSE</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -595,28 +615,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCT00243477</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NCT01742845</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MOTIV Study. Effect of Antidepressive Treatment by Escitalopram Started Preoperatively in Patients Undergoing Coronary Artery Bypass Grafting</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="b">
-        <v>0</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ultrasound-guided Intermediate Cervical Block Versus Superficial Cervical Block for Carotid : a Randomised Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CERVECHO</t>
+        </is>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -628,32 +657,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT01742845</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT00243477</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ultrasound-guided Intermediate Cervical Block Versus Superficial Cervical Block for Carotid : a Randomised Controlled Trial</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CERVECHO</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
+          <t>MOTIV Study. Effect of Antidepressive Treatment by Escitalopram Started Preoperatively in Patients Undergoing Coronary Artery Bypass Grafting</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -665,32 +695,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT02879565</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Families Expectations and Hope Raised by an Evaluation of Consciousness in Patients With an Unresponsive Wakefulness Syndrome</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>REVE</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -702,181 +737,206 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT01360658</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT02093143</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Phase 2 Multicentric Study Evaluating the Efficacy of Polyvalent Intravenous Immunoglobulins in Idiopathic Severe and Refractory Solar Urticaria</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>IGUS</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
+          <t>Evaluation of the Impact of Adding Remifentanil to Propofol on the Conditions of the Diagnostic Panendoscopy of the Upper Airway Under General Anesthesia With Tubeless Spontaneous Ventilation.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ENDOTANIL</t>
+        </is>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT01428804</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT01360658</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Pilot Study of Feasibility of the Effect of Treatment With tDCS in Patients Suffering From Resistant Depression</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DEPRESCO</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
+          <t>Phase 2 Multicentric Study Evaluating the Efficacy of Polyvalent Intravenous Immunoglobulins in Idiopathic Severe and Refractory Solar Urticaria</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>IGUS</t>
+        </is>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCT01835951</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NCT01428804</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Individual Versus Grouped Debriefing Approaches in Anaesthesia Crisis Simulation-Based Training. What Impact On The Technical Score ?</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DEBRIEF-SIM</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
+          <t>Pilot Study of Feasibility of the Effect of Treatment With tDCS in Patients Suffering From Resistant Depression</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>DEPRESCO</t>
+        </is>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT02851836</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NCT01835951</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Validation of an Attachment Picture Set in School-adolescent</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MONRADO1</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
+          <t>Individual Versus Grouped Debriefing Approaches in Anaesthesia Crisis Simulation-Based Training. What Impact On The Technical Score ?</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>DEBRIEF-SIM</t>
+        </is>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT02093143</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT02851836</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Evaluation of the Impact of Adding Remifentanil to Propofol on the Conditions of the Diagnostic Panendoscopy of the Upper Airway Under General Anesthesia With Tubeless Spontaneous Ventilation.</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ENDOTANIL</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
+          <t>Validation of an Attachment Picture Set in School-adolescent</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>MONRADO1</t>
+        </is>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -887,28 +947,33 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>NCT02235025</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Ventilatory Constraints During Exercise in Asymptomatic Versus Symptomatic Patients With Mild COPD</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -920,107 +985,122 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>NCT00498589</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>A Controlled, Randomized, Double-blind, Multicenter Study, Comparing Methotrexate vs Placebo in Corticosteroid-dependent Ulcerative Colitis</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>METEOR</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT02262130</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT02362568</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Phase 2 Multicentric Study Evaluating the Efficacy of Omalizumab in Idiopathic Severe and Refractory Solar Urticaria</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>XOLUS</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>Human Study of Interest on Cervical Ultrasound Exploration for Association With Criteria of Difficult Intubation in General Surgery</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>TUBECHO</t>
+        </is>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT02362568</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT02262130</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Human Study of Interest on Cervical Ultrasound Exploration for Association With Criteria of Difficult Intubation in General Surgery</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TUBECHO</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
+          <t>Phase 2 Multicentric Study Evaluating the Efficacy of Omalizumab in Idiopathic Severe and Refractory Solar Urticaria</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>XOLUS</t>
+        </is>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1031,32 +1111,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>NCT02845817</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Requests for Euthanasia and Assisted Suicide: a Prospective, Multicenter and Qualitative Study of Their Frequency and Characteristics, of Patients' Motivations and Their Evolution</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>DESA</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1068,32 +1153,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>NCT02862288</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Preliminary Study of Microwave Tumoral Ablation Performances for the Treatment of Pulmonary, Renal and Bone Neoplasia.</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>TherMO</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1105,32 +1195,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>NCT01008228</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Comparison of Efficacity of Simple Aspiration Versus Standard Drainage in the Management of Large Size Primary Spontaneous Pneumothorax</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>EXPRED</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1142,66 +1237,80 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT01969149</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT03056404</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Intravenous Exenatide (Byetta®) Versus Insulin for Perioperative Glycemic Control in Cardiac Surgery: the Open-labeled Randomized Phase II/III ExStress Study</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ExSTRESS</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
+          <t>Research for Specific Proteins of Interest for the Serological Diagnosis of Bird Fancier's Lung</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>HYPERSENS</t>
+        </is>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT02834897</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT02588469</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PELVI-EOS</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+          <t>Effects of Exercise and Venous Compression on Upper Airway Resistance in Obese Teenagers With Obstructive Sleep Apnea Syndrome</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>OBESOMAC</t>
+        </is>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1212,32 +1321,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>NCT02902458</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Psychological Intervention modifiEs Outcome of Patients With implAntable Cardioverter dEfibrillator: The PEACE Study</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>PEACE</t>
         </is>
       </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1249,70 +1363,76 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT02862795</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT02834897</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Human PapillomaVirus (HPV) Anal Infection: Study of Prevalence and Risk Factors Among 1000 Patients Benefiting From a Colonoscopy</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>PAPILLAN</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>PELVI-EOS</t>
+        </is>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT03056404</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT02862795</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Research for Specific Proteins of Interest for the Serological Diagnosis of Bird Fancier's Lung</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>HYPERSENS</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+          <t>Human PapillomaVirus (HPV) Anal Infection: Study of Prevalence and Risk Factors Among 1000 Patients Benefiting From a Colonoscopy</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>PAPILLAN</t>
+        </is>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1323,32 +1443,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>NCT01743274</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Does Optical Coherence Tomography Optimise Results of Stenting: The DOCTORS Study</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>DOCTORS</t>
         </is>
       </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1360,32 +1485,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT02588469</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT01969149</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Effects of Exercise and Venous Compression on Upper Airway Resistance in Obese Teenagers With Obstructive Sleep Apnea Syndrome</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>OBESOMAC</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+          <t>Intravenous Exenatide (Byetta®) Versus Insulin for Perioperative Glycemic Control in Cardiac Surgery: the Open-labeled Randomized Phase II/III ExStress Study</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>ExSTRESS</t>
+        </is>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1397,32 +1527,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT02301715</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT02116270</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Effects of Intranasal Oxytocin on Emotion Regulation to Stressful Interaction in Insecure Adolescents: a Study Protocol for a Double Blind Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ELOREA</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+          <t>Accelerated Immunosenescence and Chronic Kidney Disease</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>IRIS</t>
+        </is>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1434,69 +1569,79 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT02870608</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT02573298</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Interest of Measuring Lung Elasticity ELASTOgraphy in the Fetus in the Case of PreMAture Childbirth Threat</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ELASTOMAP</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
+          <t>Cryotherapy and Doppler in Inflammatory Rheumatic Diseases</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>CDRI</t>
+        </is>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT02843789</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT02849795</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Evolution of Adipokines and Body Composition in Rheumatoid Arthritis Patients Receiving Tocilizumab Therapy</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ADIPRAT</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
+          <t>Evaluation of Adipokines and Fat Tissue in Psoriasis and Psoriatic Arthritis and Assessment of Their Relations With the Risk of Cardiovascular Disease</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>ADIPSO</t>
+        </is>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1508,32 +1653,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT01768949</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT02151214</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Identification of Echocardiographic Criteria Predictive of the Inefficacy and/or the Unsafeness of Recruitment Maneuvers in Patients Suffering From Acute Respiratory Distress Syndrome</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>RV STAR</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
+          <t>Prospective, Multicenter, Randomized Controlled Study Evaluating the Efficacy of Parenteral Nutrition on the Quality of Life and Overall Survival in Patients in the Palliative Phase of Cancer.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>ALIM-K</t>
+        </is>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1543,185 +1693,210 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>NCT02858414</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Exploratory Study of Cellular Reservoirs in Blood From HIV Infected Patients: EURECA (ERANET to Unravel New Roads to Eradication and a Cure for AIDS) Study</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>EURECA</t>
+        </is>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>🟧</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT02851810</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Oculomotor and Neurophysiological Markers of Emotion Regulation and Attachment Styles in Adolescence</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>MONRADO2</t>
+        </is>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT02103101</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Influence of ABCB1 Polymorphisms on Plasma Concentrations of New Oral Anticoagulants in Case of Serious Adverse Events</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Pgp NACO</t>
+        </is>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>2013-000029-29</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Study of the effect of oxytocin on emotion regulation in adolescents with insecure attachment 
  Etude de l'effet de l'ocytocine sur la régulation émotionnelle chez des adolescents à l’attachement insécure</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>ELOREA 
  ELOREA</t>
         </is>
       </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>NCT02103101</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Influence of ABCB1 Polymorphisms on Plasma Concentrations of New Oral Anticoagulants in Case of Serious Adverse Events</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Pgp NACO</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>NCT02858414</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Exploratory Study of Cellular Reservoirs in Blood From HIV Infected Patients: EURECA (ERANET to Unravel New Roads to Eradication and a Cure for AIDS) Study</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>EURECA</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>🟧</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>NCT02851810</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Oculomotor and Neurophysiological Markers of Emotion Regulation and Attachment Styles in Adolescence</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>MONRADO2</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT02862327</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT02301715</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Intravenous Dexamethasone Versus Placebo for Ultrasound Guided Axillary Brachial Plexus Block With Ropivacaine: Randomised, Controlled, Clinical Trial</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ADEXA</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
+          <t>Effects of Intranasal Oxytocin on Emotion Regulation to Stressful Interaction in Insecure Adolescents: a Study Protocol for a Double Blind Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>ELOREA</t>
+        </is>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1732,32 +1907,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT02573298</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT02870608</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Cryotherapy and Doppler in Inflammatory Rheumatic Diseases</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CDRI</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
+          <t>Interest of Measuring Lung Elasticity ELASTOgraphy in the Fetus in the Case of PreMAture Childbirth Threat</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ELASTOMAP</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>1</v>
       </c>
       <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1769,107 +1949,122 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>NCT02432976</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Impact of Intravenous Exenatide Versus Insulin on Quality of Life in Cardiac Surgery Patients: an Ancillary Study of the ExSTRESS Phase II/III Clinical Trial</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>ExeQOL</t>
         </is>
       </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT02849795</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT02862327</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Evaluation of Adipokines and Fat Tissue in Psoriasis and Psoriatic Arthritis and Assessment of Their Relations With the Risk of Cardiovascular Disease</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ADIPSO</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+          <t>Intravenous Dexamethasone Versus Placebo for Ultrasound Guided Axillary Brachial Plexus Block With Ropivacaine: Randomised, Controlled, Clinical Trial</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ADEXA</t>
+        </is>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCT02151214</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT02843789</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Prospective, Multicenter, Randomized Controlled Study Evaluating the Efficacy of Parenteral Nutrition on the Quality of Life and Overall Survival in Patients in the Palliative Phase of Cancer.</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ALIM-K</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
+          <t>Evolution of Adipokines and Body Composition in Rheumatoid Arthritis Patients Receiving Tocilizumab Therapy</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ADIPRAT</t>
+        </is>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1880,32 +2075,37 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT02116270</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT01768949</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Accelerated Immunosenescence and Chronic Kidney Disease</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>IRIS</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
+          <t>Identification of Echocardiographic Criteria Predictive of the Inefficacy and/or the Unsafeness of Recruitment Maneuvers in Patients Suffering From Acute Respiratory Distress Syndrome</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>RV STAR</t>
+        </is>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1917,32 +2117,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT02870712</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT03248999</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Randomized Controlled Trial of the Effectiveness of Perineal Pain and Security of the Suture Led by the Result of Hemostasis Versus Manual Compression Routine Suture Perineal Tears of First Degree During Childbirth, ImSOLENCE Study</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ImSOLENCE</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
+          <t>Determination of the Prevalence of ESBL-producing Enterobacteriaceae as Carbapenem-resistant Enterobacteriaceae in Nursing Homes in Franche-Comté (France).</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>R'EHPAD</t>
+        </is>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1954,32 +2159,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT03706846</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT02870712</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Study of Two Fasting Procedures Before Gastroscopy: 6 Hours Versus 2 Hours for Clear Fluids</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>GASTROPREP</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
+          <t>Randomized Controlled Trial of the Effectiveness of Perineal Pain and Security of the Suture Led by the Result of Hemostasis Versus Manual Compression Routine Suture Perineal Tears of First Degree During Childbirth, ImSOLENCE Study</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ImSOLENCE</t>
+        </is>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1991,33 +2201,38 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NCT02820987</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NCT02845934</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Pharmacokinetics and Pharmacodynamic (PK/PD) of Extended-infusion Meropenem, Piperacillin-tazobactam and Cefepime in the Early Phase of Septic Shock</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>PAACS</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
+          <t>Prospective Evaluation of a New Molecular Tool for Early Diagnosis of Mucormycosis</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>MODIMUCOR</t>
+        </is>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2028,33 +2243,38 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT02845934</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT02820987</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Prospective Evaluation of a New Molecular Tool for Early Diagnosis of Mucormycosis</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MODIMUCOR</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
+          <t>Pharmacokinetics and Pharmacodynamic (PK/PD) of Extended-infusion Meropenem, Piperacillin-tazobactam and Cefepime in the Early Phase of Septic Shock</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>PAACS</t>
+        </is>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2065,33 +2285,38 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT03248999</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT02847143</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Determination of the Prevalence of ESBL-producing Enterobacteriaceae as Carbapenem-resistant Enterobacteriaceae in Nursing Homes in Franche-Comté (France).</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>R'EHPAD</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
+          <t>A Cross Over Randomized Controlled Trial of the Effect of Nasal Ocytocine on Cerebral Activations in Relation With Attachement in the General Population</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>OTACLA</t>
+        </is>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2102,33 +2327,38 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT02847143</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT03706846</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>A Cross Over Randomized Controlled Trial of the Effect of Nasal Ocytocine on Cerebral Activations in Relation With Attachement in the General Population</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>OTACLA</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
+          <t>Study of Two Fasting Procedures Before Gastroscopy: 6 Hours Versus 2 Hours for Clear Fluids</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>GASTROPREP</t>
+        </is>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2139,102 +2369,113 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT01845779</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT02858219</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Evaluation of Immune Response Against Human Papillomavirus (HPV)in Patients With Metastatic Cancer of the Anal Canal</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Epitopes-HPV01</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>VESTIBULE</t>
+        </is>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NCT02862314</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NCT02849782</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>PROPASPI</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
+          <t>Short and Long Term Fampridine Treatment in Persons With Multiple Sclerosis: Cognitive and Motor Performances</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>FAMPISEP</t>
+        </is>
       </c>
       <c r="H48" t="b">
         <v>1</v>
       </c>
       <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NCT02849782</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NCT02862314</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Short and Long Term Fampridine Treatment in Persons With Multiple Sclerosis: Cognitive and Motor Performances</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>FAMPISEP</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>PROPASPI</t>
+        </is>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2246,32 +2487,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NCT03911830</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NCT01845779</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Effects of an Aerobic Exercise Program on Cycloergometer Followed by Cold Water Immersion Recovery in Patients With Rheumatoid Arthritis</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>PREXCRIM</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
+          <t>Evaluation of Immune Response Against Human Papillomavirus (HPV)in Patients With Metastatic Cancer of the Anal Canal</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Epitopes-HPV01</t>
+        </is>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2283,66 +2529,80 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NCT02858219</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NCT03911830</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>VESTIBULE</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
+          <t>Effects of an Aerobic Exercise Program on Cycloergometer Followed by Cold Water Immersion Recovery in Patients With Rheumatoid Arthritis</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>PREXCRIM</t>
+        </is>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NCT02817178</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NCT02842333</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Prospective Study for Validation of Immunological Biomarkers in Patients With Metastatic Colorectal Cancer</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Epitopes-CRC02</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
+          <t>Study of Predictive Immunological Parameters of Molecular Complete Remission in Patients With Chronic Myelogenous Leukemia in Chronic Phase and Treated With Tyrosine Kinase Inhibitor</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>PAMIR01</t>
+        </is>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2353,32 +2613,37 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NCT02842333</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NCT03954522</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Study of Predictive Immunological Parameters of Molecular Complete Remission in Patients With Chronic Myelogenous Leukemia in Chronic Phase and Treated With Tyrosine Kinase Inhibitor</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>PAMIR01</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
+          <t>Evaluation in Children of the Psychological Impact of the Visit of a Hospitalized Relative in ICU</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>ENVIFAR</t>
+        </is>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2390,32 +2655,37 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NCT02842320</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NCT03092583</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Targeting Leukemic Stem Cell Expressing the IL-1RAP Protein in Chronic Myelogenous Leukemia (CML)</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CAR-LMC</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
+          <t>Analysis of DNA Methylation in Spondyloarthritis</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>METYLAS</t>
+        </is>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2427,32 +2697,37 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>NCT03688269</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Determination of the Minimal Effective Concentration (EC90) of Ropivacaine in Axillary Brachial Plexus Block With Intravenous Dexamethasone or Saline Injection</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>AxiRopiDexa</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2464,32 +2739,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NCT03954522</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NCT04145414</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Evaluation in Children of the Psychological Impact of the Visit of a Hospitalized Relative in ICU</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ENVIFAR</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
+          <t>Cerebrospinal Fluid Movements Through Interventricular Foramina in Phase Contrast Magnetic Resonance Imaging (PC-MRI)</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>MLCSFIV</t>
+        </is>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2501,106 +2781,121 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT03092583</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NCT02842320</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Analysis of DNA Methylation in Spondyloarthritis</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>METYLAS</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
+          <t>Targeting Leukemic Stem Cell Expressing the IL-1RAP Protein in Chronic Myelogenous Leukemia (CML)</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>CAR-LMC</t>
+        </is>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NCT02855775</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NCT03351816</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Study of the Relative Impact of the Neonatal Fc Receptor (FcRn) and the Therapeutic History on Monoclonal Antibodies Elimination. Proof of the Concept on Patients Treated by Bevacizumab or Trastuzumab in Breast Cancer</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PK-MAB</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
+          <t>Impact of New Biomarkers on the Maintenance of Sinus Rhythm After Cardioversion or Ablation of Atrial Fibrillation</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Biorhythm</t>
+        </is>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT03351816</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NCT02402842</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Impact of New Biomarkers on the Maintenance of Sinus Rhythm After Cardioversion or Ablation of Atrial Fibrillation</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Biorhythm</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
+          <t>Assessment of the Clinical Value of a Docetaxel, Cisplatin and 5-fluorouracil (DCF) Strategy Adapted to Patients for the Management of Metastatic or Locally Advanced Anal Resistant Radiochemotherapy Squamous Cell Anal Carcinoma.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Epitopes-HPV02</t>
+        </is>
       </c>
       <c r="H59" t="b">
         <v>1</v>
       </c>
       <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2612,32 +2907,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT02402842</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NCT02817178</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Assessment of the Clinical Value of a Docetaxel, Cisplatin and 5-fluorouracil (DCF) Strategy Adapted to Patients for the Management of Metastatic or Locally Advanced Anal Resistant Radiochemotherapy Squamous Cell Anal Carcinoma.</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Epitopes-HPV02</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
+          <t>Prospective Study for Validation of Immunological Biomarkers in Patients With Metastatic Colorectal Cancer</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Epitopes-CRC02</t>
+        </is>
       </c>
       <c r="H60" t="b">
         <v>1</v>
       </c>
       <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2649,32 +2949,37 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NCT04145414</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NCT02855775</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Cerebrospinal Fluid Movements Through Interventricular Foramina in Phase Contrast Magnetic Resonance Imaging (PC-MRI)</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MLCSFIV</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
+          <t>Study of the Relative Impact of the Neonatal Fc Receptor (FcRn) and the Therapeutic History on Monoclonal Antibodies Elimination. Proof of the Concept on Patients Treated by Bevacizumab or Trastuzumab in Breast Cancer</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>PK-MAB</t>
+        </is>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2686,32 +2991,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NCT04402918</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NCT02838342</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Study of Viral Load and Maternal-fetal Serology in the Interpretation of the Vertical Transmission of SARS Cov-2 During Pregnancy</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>TRANSCOVID</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
+          <t>Pharmaco-immunological Study of Interferon-alpha and Metronomic Cyclophosphamide Association in Neuroendocrine Tumors</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>EPICentro</t>
+        </is>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2723,70 +3033,80 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT02872090</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT04402918</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Effects of Long Acting Bronchodilators on CARDiac Autonomic Nervous System Control in Patients With COPD</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>LAB-Card</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
+          <t>Study of Viral Load and Maternal-fetal Serology in the Interpretation of the Vertical Transmission of SARS Cov-2 During Pregnancy</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>TRANSCOVID</t>
+        </is>
       </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NCT03834805</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NCT04568746</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Monitoring of Fetal Lung Elasticity by Elastography Between 24 and 39 Weeks</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ELASTOPULM</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
+          <t>Impact of the Implementation of a qSOFA Score on the Care of Adult Patients Referred to the Emergency Department for Suspected Infection</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>qSOFA2</t>
+        </is>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2797,70 +3117,80 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NCT02854644</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NCT02854345</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Study of the Anti-tumoral Immune Response T Cells Cluster of Differentiation 4 (TCD4): Proof of the Concept in Breast Cancer and Glioma</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ERISA</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
+          <t>Preliminary Study Concerning the Validity of Parathyroid Exploration on a Discovery NM 530c CZT Camera</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>PARAT-CZT</t>
+        </is>
       </c>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCT04568746</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NCT03834805</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Impact of the Implementation of a qSOFA Score on the Care of Adult Patients Referred to the Emergency Department for Suspected Infection</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>qSOFA2</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
+          <t>Monitoring of Fetal Lung Elasticity by Elastography Between 24 and 39 Weeks</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>ELASTOPULM</t>
+        </is>
       </c>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2871,32 +3201,37 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCT02854345</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NCT02872090</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Preliminary Study Concerning the Validity of Parathyroid Exploration on a Discovery NM 530c CZT Camera</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>PARAT-CZT</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
+          <t>Effects of Long Acting Bronchodilators on CARDiac Autonomic Nervous System Control in Patients With COPD</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>LAB-Card</t>
+        </is>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2908,70 +3243,80 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NCT02838342</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NCT02854644</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Pharmaco-immunological Study of Interferon-alpha and Metronomic Cyclophosphamide Association in Neuroendocrine Tumors</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>EPICentro</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
+          <t>Study of the Anti-tumoral Immune Response T Cells Cluster of Differentiation 4 (TCD4): Proof of the Concept in Breast Cancer and Glioma</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>ERISA</t>
+        </is>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NCT05236816</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NCT03753620</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Relationship Between Hip Abductor Strength and Ankle Stability</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>HIAS</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
+          <t>Development of a Software Correlating Simultaneously fMRI, EEG and Peripheral Physiological Activity</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>NEUREXPLO</t>
+        </is>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2982,32 +3327,37 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>NCT04995549</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>Construction of a Mechanical Data Base for Mathematically Modeling Uncertainties in Human Skin Tissues</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>SKUM</t>
         </is>
       </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3019,107 +3369,122 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>NCT01644747</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>tDCS as an add-on Treatment for Resistant Major Depression in Uni- or Bipolar Patients: a Randomized, Double-blind, Placebo Controlled Study</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>STICODEP</t>
         </is>
       </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT03753620</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NCT05236816</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Development of a Software Correlating Simultaneously fMRI, EEG and Peripheral Physiological Activity</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>NEUREXPLO</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
+          <t>Relationship Between Hip Abductor Strength and Ankle Stability</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>HIAS</t>
+        </is>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NCT02846103</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NCT04488874</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Study of Anti-telomerase T CD4 Immunity in Metastatic Lung Cancer</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Telocap02</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
+          <t>Clinical Effectiveness of Hypertonic Sodium Lactate Infusion for Intraoperative Brain Relaxation in Patients Undergoing Scheduled Craniotomy for Supratentorial Brain Tumor Resection: Study Protocol of a Single Center Double-blind Randomized Controlled Phase II Pilot Trial</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>LSD</t>
+        </is>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3130,32 +3495,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCT02818907</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NCT04169022</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Evaluation of Survival Prognostic Factors for Patients With Exocrine Pancreatic Cancer Resectable or Potentially Resectable : a Multicentre Prospective Cohort</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Pancreas-CGE</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
+          <t>Targeting Interleukin 1 Receptor Accessory Protein (IL1RAP) Expressing Acute Myeloid Leukemic (AML) Cells by Chimeric Antigen Receptor (CAR) Engineered T-cells</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>CAR-LAM</t>
+        </is>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3167,32 +3537,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NCT03312166</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NCT05897476</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>First Study Evaluating Efficiency and Safety of a Compressive Device to Prevent Keloid Scars Recurrence After Surgery</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>SCARWARS</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
+          <t>Prospective Feasibility Study of Point-of-care Ultrasound in Suspected Aortic Dissection</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>FESDAU</t>
+        </is>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3204,70 +3579,80 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NCT05897476</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NCT04534218</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Prospective Feasibility Study of Point-of-care Ultrasound in Suspected Aortic Dissection</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>FESDAU</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
+          <t>Regorafenib in Combination With Metronomic Cyclophosphamide, Capecitabine, and Low-dose Aspirin in Metastatic Colorectal Cancer Carcinoma An Open-label Phase II</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>REPROGRAM-01</t>
+        </is>
       </c>
       <c r="H76" t="b">
         <v>0</v>
       </c>
       <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NCT04488874</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NCT02818907</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Clinical Effectiveness of Hypertonic Sodium Lactate Infusion for Intraoperative Brain Relaxation in Patients Undergoing Scheduled Craniotomy for Supratentorial Brain Tumor Resection: Study Protocol of a Single Center Double-blind Randomized Controlled Phase II Pilot Trial</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>LSD</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
+          <t>Evaluation of Survival Prognostic Factors for Patients With Exocrine Pancreatic Cancer Resectable or Potentially Resectable : a Multicentre Prospective Cohort</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Pancreas-CGE</t>
+        </is>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3278,32 +3663,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NCT03069131</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NCT02846103</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>A Multicenter, Double-blind, Placebo-controlled Randomized Clinical Trial Comparing Two Strategies of Primary Prophylaxis of Spontaneous Bacterial Peritonitis in Severe Cirrhotic Patients With Ascites : Using or Not Using Rifaximin</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ProPILARifax</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
+          <t>Study of Anti-telomerase T CD4 Immunity in Metastatic Lung Cancer</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Telocap02</t>
+        </is>
       </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3315,32 +3705,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>NCT04990349</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>Normoxemic Versus Hyperoxemic Extracorporeal Oxygenation : Impact on Organ Dysfunction in Patients Supported by Veino-arterial ECMO for Cardiogenic Shock</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>ECMOxy</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
       <c r="H79" t="b">
         <v>1</v>
       </c>
       <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3352,32 +3747,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NCT04534218</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NCT05624255</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Regorafenib in Combination With Metronomic Cyclophosphamide, Capecitabine, and Low-dose Aspirin in Metastatic Colorectal Cancer Carcinoma An Open-label Phase II</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>REPROGRAM-01</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
+          <t>Correlating the Measure of Retinal Vascular Density Through Angio-OCT with Calcium Score</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>ANOSCA</t>
+        </is>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3389,32 +3789,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCT04169022</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NCT03069131</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Targeting Interleukin 1 Receptor Accessory Protein (IL1RAP) Expressing Acute Myeloid Leukemic (AML) Cells by Chimeric Antigen Receptor (CAR) Engineered T-cells</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CAR-LAM</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
+          <t>A Multicenter, Double-blind, Placebo-controlled Randomized Clinical Trial Comparing Two Strategies of Primary Prophylaxis of Spontaneous Bacterial Peritonitis in Severe Cirrhotic Patients With Ascites : Using or Not Using Rifaximin</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>ProPILARifax</t>
+        </is>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3426,32 +3831,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NCT05624255</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NCT03312166</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Correlating the Measure of Retinal Vascular Density Through Angio-OCT with Calcium Score</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ANOSCA</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
+          <t>First Study Evaluating Efficiency and Safety of a Compressive Device to Prevent Keloid Scars Recurrence After Surgery</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>SCARWARS</t>
+        </is>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3463,32 +3873,37 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NCT06255275</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
+          <t>2018-001644-61</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Impact of Perceptive, Executive and Emotional Factors on Decision-making in the Context of Pedestrian Crossing in an Industrial Environment Involving Traffic of Autonomous Vehicles (forklifts)</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>VASIS</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
+          <t>Efficacité en 1ère ligne de traitement d’une polychimiothérapie (méthotrexate, L-asparaginase, idarubicine et dexamethasone) dans la leucémie à cellules dendritiques plasmacytoïdes (LpDC) de l’adulte.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>LpDessai-01</t>
+        </is>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
       <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3500,32 +3915,39 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NCT04280848</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
+          <t>2019-001720-35</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Anticancer Therapeutic Vaccination Using Telomerase-derived Universal Cancer Peptides in Glioblastoma</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>UCPVax-Glio</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
+          <t>Evaluation de l’intérêt d’une polychimiothérapie par XELOXIRI-3 chez les patients âgés ou fragiles atteints d’un adénocarcinome pancréatique métastatique 
+ Evaluation de l’intérêt d’une polychimiothérapie par XELOXIRI-3 chez les patients âgés ou fragiles atteints d’un adénocarcinome pancréatique métastatique</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>ALIX 
+ ALIX</t>
+        </is>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3537,32 +3959,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>NCT02818426</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>Anticancer Therapeutic Vaccination Using Telomerase-derives Universal Cancer Peptides in Metastatic Non Small Cell Lung Cancer : A Phase I/II Study</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>UCPVax</t>
         </is>
       </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
       <c r="H85" t="b">
         <v>1</v>
       </c>
       <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3574,70 +4001,80 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>NCT03705078</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>A Multicenter Randomized Clinical Trial Comparing Two Treatment Strategies to Prevent Rebleeding From Gastric Varices: "Early TIPS" Versus Glue Obliteration</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>GAVAPROSEC</t>
         </is>
       </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NCT03946358</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NCT04280848</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>A Phase II Study Evaluating the Interest to Combine UCPVax a CD4 TH1-inducer Cancer Vaccine and Atezolizumab for the Treatment of Human PapillomaVirus Positive Cancers</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>VolATIL</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>1</v>
+          <t>Anticancer Therapeutic Vaccination Using Telomerase-derived Universal Cancer Peptides in Glioblastoma</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>UCPVax-Glio</t>
+        </is>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3648,32 +4085,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>NCT02838381</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Study of Genetic and Cellular Immunological Parameters Predictive of Disease-free Survival in Patients With Metastatic Cancer</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>Epitopes-CRC01</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
       <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3683,74 +4125,82 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2019-001720-35</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
+          <t>NCT02839278</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Evaluation de l’intérêt d’une polychimiothérapie par XELOXIRI-3 chez les patients âgés ou fragiles atteints d’un adénocarcinome pancréatique métastatique 
- Evaluation de l’intérêt d’une polychimiothérapie par XELOXIRI-3 chez les patients âgés ou fragiles atteints d’un adénocarcinome pancréatique métastatique</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ALIX 
- ALIX</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
+          <t>Biological Evaluation of a Novel Anti-inflammatory Treatment in Immune-mediated Inflammatory Diseases</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Super-Bio</t>
+        </is>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
       <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
+          <t>🟩</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>vert</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2018-001644-61</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
+          <t>NCT03946358</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Efficacité en 1ère ligne de traitement d’une polychimiothérapie (méthotrexate, L-asparaginase, idarubicine et dexamethasone) dans la leucémie à cellules dendritiques plasmacytoïdes (LpDC) de l’adulte.</t>
-        </is>
-      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>LpDessai-01</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
+          <t>A Phase II Study Evaluating the Interest to Combine UCPVax a CD4 TH1-inducer Cancer Vaccine and Atezolizumab for the Treatment of Human PapillomaVirus Positive Cancers</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>VolATIL</t>
+        </is>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3761,32 +4211,37 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NCT02839278</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>NCT06255275</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Biological Evaluation of a Novel Anti-inflammatory Treatment in Immune-mediated Inflammatory Diseases</t>
-        </is>
-      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Super-Bio</t>
-        </is>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
+          <t>Impact of Perceptive, Executive and Emotional Factors on Decision-making in the Context of Pedestrian Crossing in an Industrial Environment Involving Traffic of Autonomous Vehicles (forklifts)</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>VASIS</t>
+        </is>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
       <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3798,24 +4253,33 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NCT02821559</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>NCT02845999</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>EROS</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
+          <t>Allogenic Immunotherapy Based on Natural Killer Cell Adoptive Transfer in Metastatic Gastrointestinal Carcinoma Treated With Cetuximab : a Phase I Trial</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>NK-EGFR01</t>
+        </is>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3827,28 +4291,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NCT02845999</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NCT02821559</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Allogenic Immunotherapy Based on Natural Killer Cell Adoptive Transfer in Metastatic Gastrointestinal Carcinoma Treated With Cetuximab : a Phase I Trial</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>NK-EGFR01</t>
-        </is>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>EROS</t>
+        </is>
       </c>
       <c r="H93" t="b">
         <v>0</v>
       </c>
       <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3858,96 +4323,111 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2006-005110-12</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Evaluation de l'association Fofiri 3 et bévacizumab (Avastin) dans le traitement des cadénocarcinomes colorectaux métastasiques</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
         <is>
           <t>2019-000881-39</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
         <is>
           <t>A phase II study evaluating the interest to combine UCPVax a CD4 TH1-inducer cancer vaccine and atezolizumab for the treatment of HPV positive cancers 
  Etude de phase II évaluant l’intérêt d’associer le vaccin UCPVax et l’Atezolizumab dans le traitement des cancers HPV positifs</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>VolATIL study 
  VolATIL</t>
         </is>
       </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr">
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
         <is>
           <t>2020-002344-23</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
         <is>
           <t>Regorafenib in combination with metronomic cyclophosphamide, capecitabine, and low-dose aspirin in metastatic colorectal cancer carcinoma An open-label phase II 
  Régorafenib en association avec une polychimiothérapie métronomique à base de cyclophosphamide, capecitabine et aspirine à faible dose  dans le traitement des cancers colorectaux métastatiques. Etude de phase II</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>REPROGRAM-01 
  REPROGRAM-01</t>
         </is>
       </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>2006-005110-12</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Evaluation de l'association Fofiri 3 et bévacizumab (Avastin) dans le traitement des cadénocarcinomes colorectaux métastasiques</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
       <c r="I96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3957,30 +4437,35 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>2015-002575-16</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Etude de phase II, multicentrique, en ouvert, randomisée évaluant l'efficacité et la sécurité SUnitinib administre selon un schéma alteRnatiF chez des patients atteints d’adénocarcinome rénal avancé ou métastatique</t>
-        </is>
-      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2021-005549-34</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>SURF</t>
-        </is>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
+          <t>Cabo-POLARIS. Etude de phase 2 prospective multicentrique en ouvert pour évaluer la durée de traitement par cabozantinib chez les patients atteints de carcinome rénal métastatique ou localement avancé en hémodialyse (HD).</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Cabo-POLARIS</t>
+        </is>
       </c>
       <c r="H97" t="b">
         <v>0</v>
       </c>
       <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3990,30 +4475,35 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>2021-005549-34</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Cabo-POLARIS. Etude de phase 2 prospective multicentrique en ouvert pour évaluer la durée de traitement par cabozantinib chez les patients atteints de carcinome rénal métastatique ou localement avancé en hémodialyse (HD).</t>
-        </is>
-      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2015-002575-16</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Cabo-POLARIS</t>
-        </is>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
+          <t>Etude de phase II, multicentrique, en ouvert, randomisée évaluant l'efficacité et la sécurité SUnitinib administre selon un schéma alteRnatiF chez des patients atteints d’adénocarcinome rénal avancé ou métastatique</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>SURF</t>
+        </is>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
       <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4023,30 +4513,35 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
         <is>
           <t>2009-016513-26</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
         <is>
           <t>Etude pilote multicentrique randomisée en double aveugle des effets de la toxine botulique dans le traitement des vestibulodynies</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>VESTIBULE</t>
         </is>
       </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
       <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
+++ b/publipostage/0084te143/liste_essais_cliniques_identifies_0084te143.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,6 +574,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -606,6 +621,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -648,6 +668,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -686,6 +711,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -728,6 +758,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -770,6 +805,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -812,6 +852,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -854,6 +899,11 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -896,6 +946,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -938,6 +993,11 @@
       <c r="J12" t="b">
         <v>1</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -976,6 +1036,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1018,6 +1083,11 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1060,6 +1130,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1102,6 +1177,11 @@
       <c r="J16" t="b">
         <v>1</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1144,6 +1224,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1186,6 +1271,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1228,6 +1318,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1270,6 +1365,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1312,6 +1412,11 @@
       <c r="J21" t="b">
         <v>1</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1354,6 +1459,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1392,6 +1502,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1434,6 +1549,11 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1476,6 +1596,11 @@
       <c r="J25" t="b">
         <v>1</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1518,6 +1643,11 @@
       <c r="J26" t="b">
         <v>1</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1560,6 +1690,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1602,6 +1737,11 @@
       <c r="J28" t="b">
         <v>1</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1644,6 +1784,11 @@
       <c r="J29" t="b">
         <v>1</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1686,6 +1831,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1728,6 +1878,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1770,6 +1925,11 @@
       <c r="J32" t="b">
         <v>1</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1812,6 +1972,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1856,6 +2021,7 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1898,6 +2064,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1940,6 +2111,11 @@
       <c r="J36" t="b">
         <v>1</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1982,6 +2158,11 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2024,6 +2205,11 @@
       <c r="J38" t="b">
         <v>1</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2066,6 +2252,11 @@
       <c r="J39" t="b">
         <v>1</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2108,6 +2299,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2150,6 +2346,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2192,6 +2393,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2234,6 +2440,11 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2276,6 +2487,11 @@
       <c r="J44" t="b">
         <v>1</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2318,6 +2534,11 @@
       <c r="J45" t="b">
         <v>1</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2360,6 +2581,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2398,6 +2624,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2440,6 +2671,11 @@
       <c r="J48" t="b">
         <v>1</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2478,6 +2714,11 @@
       <c r="J49" t="b">
         <v>1</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2520,6 +2761,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2562,6 +2808,11 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2604,6 +2855,11 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2646,6 +2902,11 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2688,6 +2949,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2730,6 +2996,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2772,6 +3043,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2814,6 +3090,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2856,6 +3137,11 @@
       <c r="J58" t="b">
         <v>1</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2898,6 +3184,11 @@
       <c r="J59" t="b">
         <v>1</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2940,6 +3231,11 @@
       <c r="J60" t="b">
         <v>1</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2982,6 +3278,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3024,6 +3325,11 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3066,6 +3372,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3108,6 +3419,11 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3150,6 +3466,11 @@
       <c r="J65" t="b">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3192,6 +3513,11 @@
       <c r="J66" t="b">
         <v>1</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3234,6 +3560,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3276,6 +3607,11 @@
       <c r="J68" t="b">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3318,6 +3654,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3360,6 +3701,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3402,6 +3748,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3444,6 +3795,11 @@
       <c r="J72" t="b">
         <v>1</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3486,6 +3842,11 @@
       <c r="J73" t="b">
         <v>1</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3528,6 +3889,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3570,6 +3936,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3612,6 +3983,11 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3654,6 +4030,11 @@
       <c r="J77" t="b">
         <v>0</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3696,6 +4077,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3738,6 +4124,11 @@
       <c r="J79" t="b">
         <v>1</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3780,6 +4171,11 @@
       <c r="J80" t="b">
         <v>0</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3822,6 +4218,11 @@
       <c r="J81" t="b">
         <v>0</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3864,6 +4265,11 @@
       <c r="J82" t="b">
         <v>0</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3906,6 +4312,7 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3950,6 +4357,7 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3992,6 +4400,11 @@
       <c r="J85" t="b">
         <v>1</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4034,6 +4447,11 @@
       <c r="J86" t="b">
         <v>0</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4076,6 +4494,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4118,6 +4541,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4160,6 +4588,11 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4202,6 +4635,11 @@
       <c r="J90" t="b">
         <v>1</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4243,6 +4681,11 @@
       </c>
       <c r="J91" t="b">
         <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -4281,6 +4724,11 @@
       </c>
       <c r="J92" t="b">
         <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -4316,6 +4764,11 @@
       <c r="J93" t="b">
         <v>0</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4350,6 +4803,7 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4390,6 +4844,7 @@
       <c r="J95" t="b">
         <v>0</v>
       </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4430,6 +4885,7 @@
       <c r="J96" t="b">
         <v>0</v>
       </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4468,6 +4924,7 @@
       <c r="J97" t="b">
         <v>0</v>
       </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4506,6 +4963,7 @@
       <c r="J98" t="b">
         <v>0</v>
       </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4544,6 +5002,7 @@
       <c r="J99" t="b">
         <v>0</v>
       </c>
+      <c r="K99" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
